--- a/data/trans_bre/P16A06-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A06-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>6.443965957947881</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.513292160404247</v>
+        <v>2.513292160404245</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6617553551252024</v>
@@ -649,7 +649,7 @@
         <v>2.770478292633517</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.6828687305696878</v>
+        <v>0.682868730569687</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.397357476153774</v>
+        <v>-1.495718235836937</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3457293589596708</v>
+        <v>0.3492569859350922</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.624847267376514</v>
+        <v>2.705006053133275</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.2255871974764756</v>
+        <v>-0.2320667621066677</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.7211948060476655</v>
+        <v>-0.680519223678726</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1353785423706264</v>
+        <v>-0.08049534296100218</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4729936896384488</v>
+        <v>0.3303907981482982</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.07888811328459282</v>
+        <v>-0.1017783197169865</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.695575006918438</v>
+        <v>3.735316778925411</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.28652924408155</v>
+        <v>7.156629469110596</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.8667730864677</v>
+        <v>10.73184326066122</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.20815690224978</v>
+        <v>5.018511757356449</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6.762034236660882</v>
+        <v>7.194668815906112</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6.165193503291992</v>
+        <v>6.685754668011916</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>11.46982506270573</v>
+        <v>10.36645728046217</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.154157098902331</v>
+        <v>2.167814164768938</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.462150775325188</v>
+        <v>2.225038638068704</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.063897058236665</v>
+        <v>2.305474993334242</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.396177657500815</v>
+        <v>1.60369893561424</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.839892317664125</v>
+        <v>2.740697535461215</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9072483960362592</v>
+        <v>0.7238959660910246</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4077558339405382</v>
+        <v>0.3846280849149943</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2783283355939715</v>
+        <v>0.3706023660962198</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3551009093555654</v>
+        <v>0.3519883813859818</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.947426280564057</v>
+        <v>6.732259896900479</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.601849047885251</v>
+        <v>8.09416727027096</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.970020930959166</v>
+        <v>7.005137995941755</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.615291228472133</v>
+        <v>8.911910295567365</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>10.05557679982448</v>
+        <v>8.288840184414951</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>6.495258688740718</v>
+        <v>6.641141062573555</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.847905179853205</v>
+        <v>4.169852435994626</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.356414861768044</v>
+        <v>2.458613041192826</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.92100375874366</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.480047762050374</v>
+        <v>4.480047762050375</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>2.330141145799603</v>
@@ -849,7 +849,7 @@
         <v>5.712991208438435</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.7139332826032854</v>
+        <v>0.7139332826032856</v>
       </c>
     </row>
     <row r="11">
@@ -860,26 +860,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2719719899573726</v>
+        <v>-0.2717217801463938</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.00324270458479</v>
+        <v>-0.9997003407037939</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.675870911295723</v>
+        <v>1.608756607663037</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.119673092597673</v>
+        <v>0.950046556356356</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-0.5200821596906763</v>
+        <v>-0.5447335200179045</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.467167452056173</v>
+        <v>0.3241030211302197</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.113989287565405</v>
+        <v>0.1230030174126765</v>
       </c>
     </row>
     <row r="12">
@@ -890,24 +890,24 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.146019448067839</v>
+        <v>2.112384795089953</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.995840904334263</v>
+        <v>2.971095306077737</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.986483440615689</v>
+        <v>6.66579364556708</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.691289236463038</v>
+        <v>8.218949038378636</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>6.174875457531552</v>
+        <v>4.225443528793115</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>1.669667230613671</v>
+        <v>1.811837845274971</v>
       </c>
     </row>
     <row r="13">
@@ -954,28 +954,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.2624130967966971</v>
+        <v>-0.2181121284164519</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.792563954896251</v>
+        <v>2.693066091333765</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.806007893961726</v>
+        <v>3.899665279054968</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.3305493819923514</v>
+        <v>-0.5253817647120077</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3714407192565792</v>
+        <v>-0.3708773507832329</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7679119603200233</v>
+        <v>0.7430649197715322</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9817318700452243</v>
+        <v>0.8612721179624727</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.07596042915168397</v>
+        <v>-0.1086191954747624</v>
       </c>
     </row>
     <row r="15">
@@ -986,28 +986,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.998790448041249</v>
+        <v>4.174856448170208</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.793694659787352</v>
+        <v>8.499390939351075</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.56108590397139</v>
+        <v>10.88663609315836</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.16334966023406</v>
+        <v>6.88473350168156</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7.535380242621494</v>
+        <v>8.262525133701846</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>10.04274810601529</v>
+        <v>9.492323329324854</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7.896957474398727</v>
+        <v>7.652585174931033</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.939527400028495</v>
+        <v>1.805651030666669</v>
       </c>
     </row>
     <row r="16">
@@ -1031,7 +1031,7 @@
         <v>5.222989860219542</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.113141653136393</v>
+        <v>7.113141653136392</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.533300089468439</v>
@@ -1054,28 +1054,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1575165781801764</v>
+        <v>-0.1403776014878781</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>9.442089960761994</v>
+        <v>9.208449324565498</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6599553850824491</v>
+        <v>0.7240857917410356</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.999431075724622</v>
+        <v>4.171288998364991</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.180425553648625</v>
+        <v>-0.2503604107047197</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.843173169969865</v>
+        <v>1.841425900099143</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.01558667368025401</v>
+        <v>-0.01186334003744594</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.6888521772968471</v>
+        <v>0.7404926074557383</v>
       </c>
     </row>
     <row r="18">
@@ -1086,28 +1086,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.158670012594305</v>
+        <v>7.077690676918445</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>21.04066220817319</v>
+        <v>20.76229948098808</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.17111785768125</v>
+        <v>10.17868864300808</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.25313963165836</v>
+        <v>10.15070441927399</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>8.338191319009432</v>
+        <v>7.525755915491501</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>19.01696724745145</v>
+        <v>17.22191751418161</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5.41486476830238</v>
+        <v>5.730048293774715</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4.948100173421542</v>
+        <v>5.067587071498075</v>
       </c>
     </row>
     <row r="19">
@@ -1131,7 +1131,7 @@
         <v>7.198861895661649</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7.490332680581512</v>
+        <v>7.490332680581502</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.312034256772763</v>
@@ -1143,7 +1143,7 @@
         <v>1.847979278996257</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.8326251732487623</v>
+        <v>0.8326251732487614</v>
       </c>
     </row>
     <row r="20">
@@ -1154,28 +1154,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.7537722120080818</v>
+        <v>-0.3921228955159543</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6301693228959818</v>
+        <v>0.6756139528298752</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.971664297656017</v>
+        <v>3.182053316299088</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3.836444010305176</v>
+        <v>3.448479600939808</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6248692294540242</v>
+        <v>-0.5052348941858</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4385149699809768</v>
+        <v>-0.2396046549883562</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4679889607520369</v>
+        <v>0.3940724033817501</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.3290990059682082</v>
+        <v>0.2971763834890873</v>
       </c>
     </row>
     <row r="21">
@@ -1186,26 +1186,26 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.046304513714969</v>
+        <v>4.098197170737395</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>5.661183925285783</v>
+        <v>5.879032610425723</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11.59932783635883</v>
+        <v>12.50601521984126</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11.16428744022234</v>
+        <v>11.49489434968001</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>9.979053467192029</v>
+        <v>10.11651922988423</v>
       </c>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>4.877126503362514</v>
+        <v>5.304656413586959</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.498754304436076</v>
+        <v>1.565132910918184</v>
       </c>
     </row>
     <row r="22">
@@ -1252,28 +1252,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.1480552575743804</v>
+        <v>-0.03798114609568019</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.07668954365610649</v>
+        <v>-0.0127874942224161</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7078693138596709</v>
+        <v>0.3868393843829653</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.311669832062292</v>
+        <v>4.041422619687842</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.08200499727526393</v>
+        <v>-0.1272916580153754</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1609880550325776</v>
+        <v>-0.127898237099068</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.102485661574047</v>
+        <v>0.03986680357969288</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.5792925889585279</v>
+        <v>0.5528545994647676</v>
       </c>
     </row>
     <row r="24">
@@ -1284,28 +1284,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.577677192466405</v>
+        <v>3.825604719762575</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.017654729979735</v>
+        <v>3.037221500615032</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.586711484984185</v>
+        <v>6.229862081623143</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.918770639063355</v>
+        <v>9.76725845468342</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2.992397626963339</v>
+        <v>3.189804515247114</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>5.164705733615236</v>
+        <v>4.920810722258437</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.828178170648327</v>
+        <v>1.679706183595264</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>2.335612464210922</v>
+        <v>2.298759214520609</v>
       </c>
     </row>
     <row r="25">
@@ -1329,7 +1329,7 @@
         <v>4.395563941094174</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4.262116274831612</v>
+        <v>4.262116274831614</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5769129001354464</v>
@@ -1352,28 +1352,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1729596851971968</v>
+        <v>0.1426129480474398</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.238995148283435</v>
+        <v>2.402750903075153</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2.639386380688916</v>
+        <v>2.706808635629036</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2.444026602173469</v>
+        <v>2.183011358637423</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.01617897551539937</v>
+        <v>0.01426927975488395</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5067143656179867</v>
+        <v>0.4787471434834974</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1.348113448928893</v>
+        <v>1.268380478301593</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.4613664581796533</v>
+        <v>0.46815398209913</v>
       </c>
     </row>
     <row r="27">
@@ -1384,28 +1384,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.4270398184642</v>
+        <v>4.615937575748597</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>7.086129883080002</v>
+        <v>7.170859341217615</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6.504339325996683</v>
+        <v>6.534449092633293</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6.404783818025667</v>
+        <v>6.245262770615864</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.526367683354112</v>
+        <v>1.555691049349095</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.326954122911054</v>
+        <v>3.399990063023691</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>10.35402033102424</v>
+        <v>11.96514242376483</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.089043444683523</v>
+        <v>2.088844621289637</v>
       </c>
     </row>
     <row r="28">
@@ -1429,7 +1429,7 @@
         <v>4.865897714079663</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5.231539115044202</v>
+        <v>5.231539115044201</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>1.100259253815746</v>
@@ -1452,28 +1452,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.372225981795742</v>
+        <v>1.328059413427098</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.195368646989348</v>
+        <v>3.216821301526814</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.777398817325126</v>
+        <v>3.818709489647818</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4.096413935768043</v>
+        <v>4.238802635188449</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.5917233292910801</v>
+        <v>0.5445038191021148</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>1.30193433676739</v>
+        <v>1.254740954752968</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>1.214283112900733</v>
+        <v>1.239459432285941</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.7060593132247417</v>
+        <v>0.7445247970208483</v>
       </c>
     </row>
     <row r="30">
@@ -1484,28 +1484,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.099014231239869</v>
+        <v>3.056760257974098</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.246575703487482</v>
+        <v>5.224330235840373</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.983964798396308</v>
+        <v>5.995290855970044</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.225743510434792</v>
+        <v>6.334317150219245</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1.885557693571135</v>
+        <v>1.809316666159515</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>3.162305187129038</v>
+        <v>3.019085753690603</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2.611114315033848</v>
+        <v>2.670266206405213</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1.351265194411077</v>
+        <v>1.360532254625368</v>
       </c>
     </row>
     <row r="31">
